--- a/Recycling/Met_rec_tech/metrec_tech_Avg_target_Avg.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Avg_target_Avg.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.505959976866072E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.683121450765765E-11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.775975949195253E-06</v>
+      </c>
+      <c r="E7">
         <v>6.504060917552255</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.175269764768029E-08</v>
-      </c>
-      <c r="F7">
-        <v>3.775975949195253E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>17.33262306700969</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>695.6883240535705</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>46.72572395694042</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>501184.3684973923</v>
+      </c>
+      <c r="E7">
         <v>1202537.346361184</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>88149.77579298757</v>
-      </c>
-      <c r="F7">
-        <v>501184.3684973923</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3204632.738329978</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>676.6957878783834</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.45009524235579</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>482216.5984736028</v>
+      </c>
+      <c r="E7">
         <v>1236018.618522083</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85743.25587925958</v>
-      </c>
-      <c r="F7">
-        <v>482216.5984736028</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3293856.728929874</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.966951484405788E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.664392567793715E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.034738663362611E-05</v>
+      </c>
+      <c r="E7">
         <v>13.26992030347876</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.026473376676972E-07</v>
-      </c>
-      <c r="F7">
-        <v>5.034738663362611E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>35.36291090520962</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.171747221260044E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.473590466886466E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.000561395323773633</v>
+      </c>
+      <c r="E7">
         <v>28.12751433604869</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.553054611521327E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.000561395323773633</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>74.95680160113238</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.649440660976655E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.12278463454909E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.004391949196333396</v>
+      </c>
+      <c r="E7">
         <v>50.08990815823981</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.891246664020946E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.004391949196333396</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>133.4842198702283</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.820966196949596E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.566341932076457E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0319406372089533</v>
+      </c>
+      <c r="E7">
         <v>96.66502933641098</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0004841497290211171</v>
-      </c>
-      <c r="F7">
-        <v>0.0319406372089533</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>257.6019103277386</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.559048261889567E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.718778058266398E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.1922169668013885</v>
+      </c>
+      <c r="E7">
         <v>175.8728401221033</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.003242537250224563</v>
-      </c>
-      <c r="F7">
-        <v>0.1922169668013885</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>468.6822101149829</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0001235536596703371</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.298449170438256E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.8452014932034643</v>
+      </c>
+      <c r="E7">
         <v>260.3415310165561</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01565532584316398</v>
-      </c>
-      <c r="F7">
-        <v>0.8452014932034643</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>693.7821897732753</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0006278092720047769</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.216664521603217E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.957346170408587</v>
+      </c>
+      <c r="E7">
         <v>447.1163118059849</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.07954890811667317</v>
-      </c>
-      <c r="F7">
-        <v>3.957346170408587</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1191.516899654323</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.002922606931478772</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0001962961285870339</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>17.14673942309732</v>
+      </c>
+      <c r="E7">
         <v>760.4792190042997</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3703197780289998</v>
-      </c>
-      <c r="F7">
-        <v>17.14673942309732</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2026.595356406352</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.01264898398808339</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0008495656944753207</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>69.65746071487203</v>
+      </c>
+      <c r="E7">
         <v>1280.840782622831</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.602736547397884</v>
-      </c>
-      <c r="F7">
-        <v>69.65746071487203</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3413.302977243657</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.04554085286601394</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.003058739447260219</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>236.9539176918312</v>
+      </c>
+      <c r="E7">
         <v>1891.688974631344</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.77042309143518</v>
-      </c>
-      <c r="F7">
-        <v>236.9539176918312</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5041.147734151694</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1631665294251577</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.01095903718565907</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>804.9505541086575</v>
+      </c>
+      <c r="E7">
         <v>2912.264191182386</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20.67462179319256</v>
-      </c>
-      <c r="F7">
-        <v>804.9505541086575</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7760.870960032578</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.5501464504586381</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.03695044216099488</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2565.605302625684</v>
+      </c>
+      <c r="E7">
         <v>4415.178898444755</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69.70835154839047</v>
-      </c>
-      <c r="F7">
-        <v>2565.605302625684</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>11765.97707036208</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.468073590795347</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.09860277796856555</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6355.255174462264</v>
+      </c>
+      <c r="E7">
         <v>5596.211279312894</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>186.0177228822528</v>
-      </c>
-      <c r="F7">
-        <v>6355.255174462264</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>14913.30138774014</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.034569315227304</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.2709807906650114</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>15404.56976695818</v>
+      </c>
+      <c r="E7">
         <v>7969.580121131323</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>511.2151063371422</v>
-      </c>
-      <c r="F7">
-        <v>15404.56976695818</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>21238.07418056718</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.932231975584875</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.599931019653561</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>27222.07426896144</v>
+      </c>
+      <c r="E7">
         <v>10784.49042374502</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1131.791664104644</v>
-      </c>
-      <c r="F7">
-        <v>27222.07426896144</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>28739.50749448008</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.11589509682021</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.9480903946410926</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>32442.75382947481</v>
+      </c>
+      <c r="E7">
         <v>14259.05869918477</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1788.606973668596</v>
-      </c>
-      <c r="F7">
-        <v>32442.75382947481</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>37998.85838344003</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.17799267690503</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8850964244158164</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30797.66739629037</v>
+      </c>
+      <c r="E7">
         <v>18441.90033541034</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1669.766560264077</v>
-      </c>
-      <c r="F7">
-        <v>30797.66739629037</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>49145.68162952005</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.383106449855158</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4958844097174666</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30721.33943399007</v>
+      </c>
+      <c r="E7">
         <v>23354.51477454842</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>935.5039544409216</v>
-      </c>
-      <c r="F7">
-        <v>30721.33943399007</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62237.2709344945</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.955658532261658</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4000102444422028</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>32554.5507650887</v>
+      </c>
+      <c r="E7">
         <v>28984.444625683</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>754.6338585352373</v>
-      </c>
-      <c r="F7">
-        <v>32554.5507650887</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>77240.42869091747</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>4.086790908983289E-05</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0001089085838478698</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.863261375937487</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.6624633653212195</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34605.17288903651</v>
+      </c>
+      <c r="E7">
         <v>35284.55526825905</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1249.761206010371</v>
-      </c>
-      <c r="F7">
-        <v>34605.17288903651</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>94029.54620264622</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.37182108164698</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.9652795963381203</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36152.81063893247</v>
+      </c>
+      <c r="E7">
         <v>42180.62573674833</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1821.035027154717</v>
-      </c>
-      <c r="F7">
-        <v>36152.81063893247</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>112406.8325763483</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>20.21525433765183</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.357752259512877</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37745.21213938724</v>
+      </c>
+      <c r="E7">
         <v>49588.56903730048</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2561.44896478816</v>
-      </c>
-      <c r="F7">
-        <v>37745.21213938724</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>132148.2050139503</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>27.73501648305013</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.862815113206358</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40707.33536947058</v>
+      </c>
+      <c r="E7">
         <v>57444.28891412664</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3514.268387243225</v>
-      </c>
-      <c r="F7">
-        <v>40707.33536947058</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>153082.853885026</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>32.69654983573684</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.196055200505768</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40938.10936521953</v>
+      </c>
+      <c r="E7">
         <v>65749.05662277686</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4142.937918564962</v>
-      </c>
-      <c r="F7">
-        <v>40938.10936521953</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>175214.1669489388</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>39.12891603139782</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.628083390223188</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40373.96200367132</v>
+      </c>
+      <c r="E7">
         <v>74631.3384491101</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4957.974794075679</v>
-      </c>
-      <c r="F7">
-        <v>40373.96200367132</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>198884.4930455651</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>61.80926564553327</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.151403127921399</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41186.84298615965</v>
+      </c>
+      <c r="E7">
         <v>84422.41777712772</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7831.772821536405</v>
-      </c>
-      <c r="F7">
-        <v>41186.84298615965</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>224976.6667756333</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>99.73379475062984</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.698594185888962</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41380.60164284312</v>
+      </c>
+      <c r="E7">
         <v>95737.44120482338</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12637.1412919888</v>
-      </c>
-      <c r="F7">
-        <v>41380.60164284312</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>255129.9876858624</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>142.8827351312035</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.596681457944303</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43038.7996692729</v>
+      </c>
+      <c r="E7">
         <v>109546.5289479795</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18104.48821839728</v>
-      </c>
-      <c r="F7">
-        <v>43038.7996692729</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>291929.7218497093</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>184.4965147719319</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.39166006124755</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44690.51382386005</v>
+      </c>
+      <c r="E7">
         <v>127213.3809649152</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23377.3168952611</v>
-      </c>
-      <c r="F7">
-        <v>44690.51382386005</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>339009.9830391181</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.002054513671185868</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.005475058044518516</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>177.660864491002</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.93254540163696</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43825.85437492201</v>
+      </c>
+      <c r="E7">
         <v>150474.3481503368</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22511.18041024393</v>
-      </c>
-      <c r="F7">
-        <v>43825.85437492201</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>400997.9597062747</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>157.8953367006064</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.60499890780485</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40542.34764533127</v>
+      </c>
+      <c r="E7">
         <v>181340.4968890768</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20006.71571978972</v>
-      </c>
-      <c r="F7">
-        <v>40542.34764533127</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>483252.9275487616</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>153.1999953390999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.28963753582865</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37048.4888036225</v>
+      </c>
+      <c r="E7">
         <v>221919.845473542</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19411.77503445997</v>
-      </c>
-      <c r="F7">
-        <v>37048.4888036225</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>591392.52867415</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>139.021076755981</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.337314185247687</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>38956.72500679213</v>
+      </c>
+      <c r="E7">
         <v>274172.757625974</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17615.18243562728</v>
-      </c>
-      <c r="F7">
-        <v>38956.72500679213</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>730640.9216354691</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>121.5384029879961</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.163094983533442</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>48283.06419761918</v>
+      </c>
+      <c r="E7">
         <v>339628.6348143356</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15399.97525214271</v>
-      </c>
-      <c r="F7">
-        <v>48283.06419761918</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>905073.7969126146</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>108.14766903937</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.26370984735836</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>70764.15144930749</v>
+      </c>
+      <c r="E7">
         <v>419099.4987174117</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13703.25251803507</v>
-      </c>
-      <c r="F7">
-        <v>70764.15144930749</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1116855.104975767</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>140.2039881888626</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.416764121616147</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>112362.4429851514</v>
+      </c>
+      <c r="E7">
         <v>512424.6478689875</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17765.0676270071</v>
-      </c>
-      <c r="F7">
-        <v>112362.4429851514</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1365556.593695138</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>217.787621326966</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.62764850798168</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>168840.0904031178</v>
+      </c>
+      <c r="E7">
         <v>618272.3454764778</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27595.59033361298</v>
-      </c>
-      <c r="F7">
-        <v>168840.0904031178</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1647629.327698972</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>303.518147978269</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.38571686199856</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>231026.3112958876</v>
+      </c>
+      <c r="E7">
         <v>734017.6065340595</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38458.39547441794</v>
-      </c>
-      <c r="F7">
-        <v>231026.3112958876</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1956078.004169657</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>427.4257159286989</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>28.70793618931589</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>319401.2867624644</v>
+      </c>
+      <c r="E7">
         <v>855716.9378921537</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54158.56458210545</v>
-      </c>
-      <c r="F7">
-        <v>319401.2867624644</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2280393.637844687</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.01987603780147138</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.05296750378657129</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>587.861101535521</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.48353681620295</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>432148.2790854624</v>
+      </c>
+      <c r="E7">
         <v>978209.4462407995</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74487.12664291395</v>
-      </c>
-      <c r="F7">
-        <v>432148.2790854624</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2606823.002921826</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>667.9367731200399</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.86179831170094</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>489495.4906890954</v>
+      </c>
+      <c r="E7">
         <v>1095378.279318982</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84633.41234671816</v>
-      </c>
-      <c r="F7">
-        <v>489495.4906890954</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2919065.345773344</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>671.6799237994502</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.11320604606718</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>493235.6627367007</v>
+      </c>
+      <c r="E7">
         <v>1200593.913466704</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85107.70217125742</v>
-      </c>
-      <c r="F7">
-        <v>493235.6627367007</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3199453.698612632</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>666.3903971802683</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.75793637698511</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>488966.1683444281</v>
+      </c>
+      <c r="E7">
         <v>1287325.785698669</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84437.47303356671</v>
-      </c>
-      <c r="F7">
-        <v>488966.1683444281</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3430584.813211485</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>652.7203062296006</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.83978830098264</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>477568.3137337496</v>
+      </c>
+      <c r="E7">
         <v>1349858.589818428</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82705.35333181603</v>
-      </c>
-      <c r="F7">
-        <v>477568.3137337496</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3597228.01303238</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>632.1632501121538</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>42.45907901451029</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>460505.8311418396</v>
+      </c>
+      <c r="E7">
         <v>1384002.431328636</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>80100.59510163873</v>
-      </c>
-      <c r="F7">
-        <v>460505.8311418396</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3688217.679712636</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>619.1944804701579</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.58803500040033</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>447503.9273151105</v>
+      </c>
+      <c r="E7">
         <v>1387663.11885904</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78457.33892394154</v>
-      </c>
-      <c r="F7">
-        <v>447503.9273151105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3697973.01840563</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>604.1173958303669</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.5753865620171</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>430527.9877597552</v>
+      </c>
+      <c r="E7">
         <v>1361154.844781709</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76546.94085535595</v>
-      </c>
-      <c r="F7">
-        <v>430527.9877597552</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3627331.318002819</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>556.2086671910058</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.35760935902012</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>386056.3466537686</v>
+      </c>
+      <c r="E7">
         <v>1307193.160493445</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>70476.48725987262</v>
-      </c>
-      <c r="F7">
-        <v>386056.3466537686</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3483529.23101661</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>445.4503671116093</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.91855716206052</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>291493.3260712352</v>
+      </c>
+      <c r="E7">
         <v>1230584.900864704</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56442.44502911725</v>
-      </c>
-      <c r="F7">
-        <v>291493.3260712352</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3279376.455574231</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.09443523181643231</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.2516597396716728</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>294.4670491942244</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.77780218430778</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>164340.3932581235</v>
+      </c>
+      <c r="E7">
         <v>1137702.503908633</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37311.54234937933</v>
-      </c>
-      <c r="F7">
-        <v>164340.3932581235</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3031854.853853777</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>230.312273838966</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>15.46886351145103</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>98859.95385813713</v>
+      </c>
+      <c r="E7">
         <v>1035862.971759861</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29182.57299904704</v>
-      </c>
-      <c r="F7">
-        <v>98859.95385813713</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2760463.449863117</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>237.7390295876147</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>15.96767961488223</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91588.05423686297</v>
+      </c>
+      <c r="E7">
         <v>932712.6581730352</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30123.60770018751</v>
-      </c>
-      <c r="F7">
-        <v>91588.05423686297</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2485578.954267535</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>228.0600053963711</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>15.31759049178553</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>84682.37120709558</v>
+      </c>
+      <c r="E7">
         <v>835662.97557139</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>28897.19095169063</v>
-      </c>
-      <c r="F7">
-        <v>84682.37120709558</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2226951.984343598</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>198.2365325268244</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.31450475272915</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>70939.45622366936</v>
+      </c>
+      <c r="E7">
         <v>751369.8424135093</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25118.29693274148</v>
-      </c>
-      <c r="F7">
-        <v>70939.45622366936</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2002319.847178337</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>162.5675344570286</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.91880584561111</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>55549.08699184905</v>
+      </c>
+      <c r="E7">
         <v>685241.8476382492</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20598.72390858521</v>
-      </c>
-      <c r="F7">
-        <v>55549.08699184905</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1826095.850794225</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>140.8042158269444</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.457078253618418</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>55164.01077762355</v>
+      </c>
+      <c r="E7">
         <v>641006.0676628647</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17841.1217016441</v>
-      </c>
-      <c r="F7">
-        <v>55164.01077762355</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1708212.253129974</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>137.2692649687044</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.219654205675431</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>73245.21246331681</v>
+      </c>
+      <c r="E7">
         <v>620418.5010938166</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17393.21260957044</v>
-      </c>
-      <c r="F7">
-        <v>73245.21246331681</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1653348.601677187</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>153.9605404496697</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.34071934885408</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>105599.9543866203</v>
+      </c>
+      <c r="E7">
         <v>623221.6794492922</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19508.14273053763</v>
-      </c>
-      <c r="F7">
-        <v>105599.9543866203</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1660818.770613327</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>202.0884891265022</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.57322040821397</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>153007.410374271</v>
+      </c>
+      <c r="E7">
         <v>647395.3349310734</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25606.37341596813</v>
-      </c>
-      <c r="F7">
-        <v>153007.410374271</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1725238.963463419</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.318916383395238E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8382,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.229141490590135E-16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>9.021981185772541E-11</v>
+      </c>
+      <c r="E7">
         <v>0.3331163084819778</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.205356406835931E-13</v>
-      </c>
-      <c r="F7">
-        <v>9.021981185772541E-11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.8877191474037966</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>281.3657862211038</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.8978592903371</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>213992.1549557882</v>
+      </c>
+      <c r="E7">
         <v>689641.1949924772</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35651.49811152803</v>
-      </c>
-      <c r="F7">
-        <v>213992.1549557882</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1837819.638501364</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>381.8560831093451</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.64726374403235</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>286320.8699983675</v>
+      </c>
+      <c r="E7">
         <v>745954.0834977065</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48384.49481967332</v>
-      </c>
-      <c r="F7">
-        <v>286320.8699983675</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1987887.431938178</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>493.8177500848677</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.16713976318817</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>365997.7505959948</v>
+      </c>
+      <c r="E7">
         <v>812116.0439247667</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62571.01412733598</v>
-      </c>
-      <c r="F7">
-        <v>365997.7505959948</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2164201.94313255</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>594.6391285543547</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.93878122451692</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>437454.2599818772</v>
+      </c>
+      <c r="E7">
         <v>884016.4945464656</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75345.96175825359</v>
-      </c>
-      <c r="F7">
-        <v>437454.2599818772</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2355808.913727016</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>652.800890927011</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.84520075106432</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>478787.8370394208</v>
+      </c>
+      <c r="E7">
         <v>957802.2173920831</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82715.56411552973</v>
-      </c>
-      <c r="F7">
-        <v>478787.8370394208</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2552439.932104876</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>666.5639614955601</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.76959377873342</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>488440.5943527289</v>
+      </c>
+      <c r="E7">
         <v>1029930.617898398</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84459.46514547897</v>
-      </c>
-      <c r="F7">
-        <v>488440.5943527289</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2744654.364634017</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>659.5678091975177</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.29969904320833</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>482384.5802952725</v>
+      </c>
+      <c r="E7">
         <v>1097205.032724235</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83572.99165560833</v>
-      </c>
-      <c r="F7">
-        <v>482384.5802952725</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2923933.447196592</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>646.0605292168234</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.39248612333412</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>470418.4606305891</v>
+      </c>
+      <c r="E7">
         <v>1156830.498501673</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81861.50152316847</v>
-      </c>
-      <c r="F7">
-        <v>470418.4606305891</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3082828.902915072</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>630.4013040503486</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>42.34073836904533</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>455425.0132500252</v>
+      </c>
+      <c r="E7">
         <v>1206486.637991615</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>79877.34117464667</v>
-      </c>
-      <c r="F7">
-        <v>455425.0132500252</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3215157.175920537</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>615.213449241975</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.32065008132023</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>438570.3661804026</v>
+      </c>
+      <c r="E7">
         <v>1244399.477625945</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77952.90755998755</v>
-      </c>
-      <c r="F7">
-        <v>438570.3661804026</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3316190.817381127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.741870035796783E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.841569823566299E-14</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.868759650028586E-09</v>
+      </c>
+      <c r="E7">
         <v>1.063793025154655</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.474188376494669E-11</v>
-      </c>
-      <c r="F7">
-        <v>5.868759650028586E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.834894039285641</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>596.3491405894641</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.05363373468988</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>415890.7598816982</v>
+      </c>
+      <c r="E7">
         <v>1269402.062100763</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75562.63519129314</v>
-      </c>
-      <c r="F7">
-        <v>415890.7598816982</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3382820.016876109</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>557.2397224616312</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.42685991604956</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>375037.8217361128</v>
+      </c>
+      <c r="E7">
         <v>1280984.842448362</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>70607.13095158535</v>
-      </c>
-      <c r="F7">
-        <v>375037.8217361128</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3413686.881190234</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>477.622477356117</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.07938851486811</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>302487.9332322698</v>
+      </c>
+      <c r="E7">
         <v>1279338.00725802</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>60518.9318793152</v>
-      </c>
-      <c r="F7">
-        <v>302487.9332322698</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3409298.242465979</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>386.8628850476042</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.98354428401759</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>221445.7808474789</v>
+      </c>
+      <c r="E7">
         <v>1265380.114122968</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>49018.90027544671</v>
-      </c>
-      <c r="F7">
-        <v>221445.7808474789</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3372101.95793141</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>331.4425982998752</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.26125524932414</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>168631.0584681723</v>
+      </c>
+      <c r="E7">
         <v>1240757.831461008</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41996.66678052433</v>
-      </c>
-      <c r="F7">
-        <v>168631.0584681723</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3306486.221879888</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>308.4236716560877</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.71519507416465</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>145792.1804097067</v>
+      </c>
+      <c r="E7">
         <v>1207796.168985475</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39079.96809163153</v>
-      </c>
-      <c r="F7">
-        <v>145792.1804097067</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3218646.935226124</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>290.3208915851631</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.49932659513281</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>134721.8311625958</v>
+      </c>
+      <c r="E7">
         <v>1169380.408054387</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>36786.18803336668</v>
-      </c>
-      <c r="F7">
-        <v>134721.8311625958</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3116273.062580803</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>266.0434904122999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.86874130805279</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>125726.4735101456</v>
+      </c>
+      <c r="E7">
         <v>1128761.458689853</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33710.02965003365</v>
-      </c>
-      <c r="F7">
-        <v>125726.4735101456</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3008027.929634174</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>242.6917222143194</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.30032591713806</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>121661.9518218969</v>
+      </c>
+      <c r="E7">
         <v>1089294.832205784</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30751.15703445228</v>
-      </c>
-      <c r="F7">
-        <v>121661.9518218969</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2902853.613273023</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>230.7710774718067</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>15.49967893720612</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>129042.3794447271</v>
+      </c>
+      <c r="E7">
         <v>1054144.919310012</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29240.70741926018</v>
-      </c>
-      <c r="F7">
-        <v>129042.3794447271</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2809182.874517103</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.106181448078906E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.429638704881226E-13</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.994718537488576E-07</v>
+      </c>
+      <c r="E7">
         <v>2.944587506740783</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.401628333595682E-09</v>
-      </c>
-      <c r="F7">
-        <v>1.994718537488576E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7.847009120783469</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>237.6932489127308</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>15.96460476785199</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>151343.3163522865</v>
+      </c>
+      <c r="E7">
         <v>1026001.92713648</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30117.80688955559</v>
-      </c>
-      <c r="F7">
-        <v>151343.3163522865</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2734184.826143163</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>269.9878792464652</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.13366515034205</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>189532.6642312044</v>
+      </c>
+      <c r="E7">
         <v>1006860.219838615</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34209.81810321064</v>
-      </c>
-      <c r="F7">
-        <v>189532.6642312044</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2683174.234197818</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>329.559441812031</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.13477353736148</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>241840.3658298154</v>
+      </c>
+      <c r="E7">
         <v>997891.562311437</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41758.05443581897</v>
-      </c>
-      <c r="F7">
-        <v>241840.3658298154</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2659273.726145046</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>411.1248578354716</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>27.61309332766288</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>304371.0477835751</v>
+      </c>
+      <c r="E7">
         <v>999421.4447010137</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>52093.10374789336</v>
-      </c>
-      <c r="F7">
-        <v>304371.0477835751</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2663350.698229337</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>503.9766751826642</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.84946130489961</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>371731.9386403935</v>
+      </c>
+      <c r="E7">
         <v>1010993.007886349</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63858.23850455515</v>
-      </c>
-      <c r="F7">
-        <v>371731.9386403935</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2694187.670012034</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>593.8274283338581</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.88426359194014</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>435807.2986290362</v>
+      </c>
+      <c r="E7">
         <v>1031490.367057113</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75243.11226376879</v>
-      </c>
-      <c r="F7">
-        <v>435807.2986290362</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2748810.928446961</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>665.6967086252398</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.71134496699064</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>486736.0064873122</v>
+      </c>
+      <c r="E7">
         <v>1059293.000299203</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84349.57664594357</v>
-      </c>
-      <c r="F7">
-        <v>486736.0064873122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2822901.956861993</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>707.3194191712169</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>47.50692341220425</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>515901.7489670047</v>
+      </c>
+      <c r="E7">
         <v>1092440.091776319</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>89623.53694636359</v>
-      </c>
-      <c r="F7">
-        <v>515901.7489670047</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2911235.391868743</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>718.7857510606443</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.27705658842643</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>523092.8920599608</v>
+      </c>
+      <c r="E7">
         <v>1128791.724572283</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91076.42116228899</v>
-      </c>
-      <c r="F7">
-        <v>523092.8920599608</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3008108.584956839</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>711.4196378436885</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>47.78231352474301</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>515861.6178761353</v>
+      </c>
+      <c r="E7">
         <v>1166178.992222969</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>90143.07039860646</v>
-      </c>
-      <c r="F7">
-        <v>515861.6178761353</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3107741.633587421</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
